--- a/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>41,83</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>23,63</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 26,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 13,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 19,22</t>
+          <t>-29,13; 56,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 18,22</t>
+          <t>-10,04; 75,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 19,46</t>
+          <t>-19,78; 38,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 10,28</t>
+          <t>-7,68; 50,14</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>108,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>306,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>246,97%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 444,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 239,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 176,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,44; 164,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 177,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 92,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 12,56</t>
+          <t>-2,02; 26,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 21,97</t>
+          <t>-8,92; 13,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 16,23</t>
+          <t>-11,04; 19,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 21,79</t>
+          <t>-14,87; 18,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,64</t>
+          <t>-1,29; 19,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 15,58</t>
+          <t>-8,13; 10,28</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>108,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>-5,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>5,18%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 109,12</t>
+          <t>-16,86; 444,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 167,96</t>
+          <t>-49,8; 239,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 483,72</t>
+          <t>-45,04; 176,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 543,14</t>
+          <t>-67,44; 164,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 97,37</t>
+          <t>-9,01; 177,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 147,36</t>
+          <t>-42,94; 92,54</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,58</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>41,83</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>10,43</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; 23,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 25,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 56,88</t>
+          <t>-8,95; 11,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 75,07</t>
+          <t>1,44; 24,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 38,65</t>
+          <t>-3,49; 13,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 50,14</t>
+          <t>1,23; 21,65</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>306,71%</t>
+          <t>230,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>246,97%</t>
+          <t>135,87%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-44,66; 505,39</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-53,79; 616,18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 1262,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,49; 358,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,97; 555,35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>5,98</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 23,04</t>
+          <t>-18,25; 12,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 25,35</t>
+          <t>-11,98; 21,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,74</t>
+          <t>-7,77; 16,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 24,88</t>
+          <t>-3,34; 21,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 13,92</t>
+          <t>-10,19; 9,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,23; 21,65</t>
+          <t>-5,38; 15,58</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>-16,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>20,84%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>230,44%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>135,87%</t>
+          <t>40,2%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 505,39</t>
+          <t>-68,95; 109,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 616,18</t>
+          <t>-41,54; 167,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,41; 483,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1262,16</t>
+          <t>-36,4; 543,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 358,33</t>
+          <t>-54,79; 97,37</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,97; 555,35</t>
+          <t>-30,16; 147,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,13; 56,88</t>
+          <t>-27,79; 57,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 75,07</t>
+          <t>-12,93; 73,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,78; 38,65</t>
+          <t>-21,39; 41,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 50,14</t>
+          <t>-8,83; 51,99</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 24,88</t>
+          <t>-16,07; 20,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 29,73</t>
+          <t>-11,83; 29,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 27,79</t>
+          <t>-11,85; 28,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 18,76</t>
+          <t>-17,48; 18,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 18,41</t>
+          <t>-10,66; 18,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; 18,51</t>
+          <t>-10,89; 18,72</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 232,3</t>
+          <t>-64,64; 179,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-62,79; 268,0</t>
+          <t>-56,61; 265,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 373,98</t>
+          <t>-57,71; 346,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,46; 303,29</t>
+          <t>-75,36; 247,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 160,29</t>
+          <t>-49,06; 143,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,11; 148,72</t>
+          <t>-49,59; 157,96</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 26,75</t>
+          <t>0,0; 25,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 13,56</t>
+          <t>-8,35; 12,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 19,22</t>
+          <t>-8,5; 20,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 18,22</t>
+          <t>-14,9; 16,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 19,46</t>
+          <t>-0,83; 18,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 10,28</t>
+          <t>-8,68; 10,53</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 444,5</t>
+          <t>-8,08; 413,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,8; 239,6</t>
+          <t>-46,69; 229,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,04; 176,38</t>
+          <t>-37,17; 174,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-67,44; 164,07</t>
+          <t>-66,18; 150,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 177,88</t>
+          <t>-5,94; 177,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 92,54</t>
+          <t>-46,45; 98,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 23,04</t>
+          <t>-5,27; 23,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 25,35</t>
+          <t>-5,21; 28,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 11,74</t>
+          <t>-7,6; 11,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,44; 24,88</t>
+          <t>1,66; 25,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 13,92</t>
+          <t>-3,5; 14,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 21,65</t>
+          <t>1,13; 22,51</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 505,39</t>
+          <t>-47,9; 451,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 616,18</t>
+          <t>-51,6; 884,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1198,17 +1198,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1262,16</t>
+          <t>-2,68; inf</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 358,33</t>
+          <t>-37,53; 390,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,97; 555,35</t>
+          <t>2,77; 461,45</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 12,56</t>
+          <t>-18,31; 11,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 21,97</t>
+          <t>-10,23; 19,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 16,23</t>
+          <t>-6,13; 17,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 21,79</t>
+          <t>-3,47; 21,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 9,64</t>
+          <t>-10,0; 10,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 15,58</t>
+          <t>-3,85; 16,55</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 109,12</t>
+          <t>-69,8; 85,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 167,96</t>
+          <t>-40,22; 136,06</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 483,72</t>
+          <t>-60,88; 587,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 543,14</t>
+          <t>-45,44; 523,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,79; 97,37</t>
+          <t>-52,79; 101,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-30,16; 147,36</t>
+          <t>-23,13; 165,95</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 13,49</t>
+          <t>-2,66; 12,41</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 12,01</t>
+          <t>-4,24; 11,34</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 11,83</t>
+          <t>-1,99; 11,69</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 14,47</t>
+          <t>0,19; 14,58</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,12</t>
+          <t>-0,79; 9,95</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,39; 10,62</t>
+          <t>-0,23; 11,02</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 121,69</t>
+          <t>-15,18; 104,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 98,15</t>
+          <t>-24,72; 94,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 132,68</t>
+          <t>-13,86; 123,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 164,96</t>
+          <t>-0,25; 162,89</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,52; 87,15</t>
+          <t>-5,57; 84,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>1,89; 90,63</t>
+          <t>-2,1; 99,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 57,81</t>
+          <t>-28,72; 57,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 73,96</t>
+          <t>-6,14; 76,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 41,05</t>
+          <t>-19,12; 40,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 51,99</t>
+          <t>-9,73; 50,39</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 20,81</t>
+          <t>-16,56; 23,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 29,5</t>
+          <t>-11,38; 30,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 28,37</t>
+          <t>-13,25; 25,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 18,29</t>
+          <t>-17,73; 19,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 18,36</t>
+          <t>-9,06; 18,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 18,72</t>
+          <t>-10,46; 17,96</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 179,12</t>
+          <t>-63,51; 217,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,61; 265,17</t>
+          <t>-53,38; 314,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 346,37</t>
+          <t>-58,98; 335,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-75,36; 247,67</t>
+          <t>-77,52; 277,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 143,4</t>
+          <t>-41,06; 148,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 157,96</t>
+          <t>-48,04; 152,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,51</t>
+          <t>-1,68; 27,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 12,59</t>
+          <t>-8,46; 13,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 20,02</t>
+          <t>-9,82; 19,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,9; 16,63</t>
+          <t>-14,8; 19,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 18,55</t>
+          <t>-1,19; 19,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 10,53</t>
+          <t>-8,34; 10,5</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 413,4</t>
+          <t>-17,23; 450,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,69; 229,82</t>
+          <t>-49,84; 233,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 174,34</t>
+          <t>-40,12; 170,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-66,18; 150,67</t>
+          <t>-63,98; 177,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 177,85</t>
+          <t>-6,26; 196,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 98,47</t>
+          <t>-43,82; 97,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 23,15</t>
+          <t>-4,57; 23,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 28,69</t>
+          <t>-4,58; 28,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 11,72</t>
+          <t>-7,4; 11,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 25,12</t>
+          <t>0,52; 24,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 14,86</t>
+          <t>-3,07; 14,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 22,51</t>
+          <t>2,42; 22,53</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 451,13</t>
+          <t>-41,23; 584,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,6; 884,81</t>
+          <t>-51,82; 637,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,68; inf</t>
+          <t>-10,34; 1251,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 390,62</t>
+          <t>-35,16; 328,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,77; 461,45</t>
+          <t>10,18; 500,23</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 11,22</t>
+          <t>-17,31; 12,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 19,52</t>
+          <t>-12,02; 21,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 17,14</t>
+          <t>-6,22; 17,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 21,63</t>
+          <t>-3,54; 21,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 10,34</t>
+          <t>-9,99; 9,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 16,55</t>
+          <t>-5,26; 16,77</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-69,8; 85,79</t>
+          <t>-68,82; 96,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,22; 136,06</t>
+          <t>-42,42; 154,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,88; 587,79</t>
+          <t>-60,48; 505,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 523,61</t>
+          <t>-40,6; 559,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-52,79; 101,09</t>
+          <t>-54,92; 88,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 165,95</t>
+          <t>-29,59; 154,07</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 12,41</t>
+          <t>-2,32; 12,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,34</t>
+          <t>-3,79; 12,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 11,69</t>
+          <t>-1,94; 11,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 14,58</t>
+          <t>-0,22; 14,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 9,95</t>
+          <t>-0,18; 9,88</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,02</t>
+          <t>-0,01; 10,57</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 104,1</t>
+          <t>-12,22; 107,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 94,06</t>
+          <t>-22,29; 105,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 123,42</t>
+          <t>-14,18; 131,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 162,89</t>
+          <t>-5,41; 167,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 84,9</t>
+          <t>-2,72; 82,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 99,68</t>
+          <t>-0,64; 89,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16A98-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,58</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,83</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>7,13</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 26,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,69; 28,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,72; 57,2</t>
+          <t>-14,81; 18,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 76,19</t>
+          <t>-13,25; 27,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 40,11</t>
+          <t>-8,46; 17,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 50,39</t>
+          <t>-5,3; 20,76</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>306,71%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>246,97%</t>
+          <t>42,86%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,81; 361,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,47; 377,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,63; 192,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,73; 285,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,38; 149,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,23; 178,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>4,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>12,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,44</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,56; 23,04</t>
+          <t>-11,04; 19,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 30,9</t>
+          <t>-12,21; 37,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 25,69</t>
+          <t>-2,02; 26,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,73; 19,91</t>
+          <t>-8,8; 13,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 18,12</t>
+          <t>-1,29; 19,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 17,96</t>
+          <t>-6,14; 18,3</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>27,88%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,52%</t>
+          <t>108,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>58,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 217,1</t>
+          <t>-45,04; 176,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 314,54</t>
+          <t>-60,57; 405,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-58,98; 335,03</t>
+          <t>-16,86; 444,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 277,32</t>
+          <t>-48,81; 245,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 148,11</t>
+          <t>-9,01; 177,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,04; 152,84</t>
+          <t>-33,92; 166,94</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,9</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>7,44</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 27,18</t>
+          <t>-8,95; 11,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 13,5</t>
+          <t>-4,48; 20,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 19,31</t>
+          <t>-4,76; 23,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 19,97</t>
+          <t>-5,51; 24,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 19,91</t>
+          <t>-3,49; 13,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 10,5</t>
+          <t>-2,49; 18,76</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>108,91%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>142,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>93,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>96,9%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 450,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,84; 233,49</t>
+          <t>-39,37; 930,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,12; 170,43</t>
+          <t>-44,66; 505,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,98; 177,96</t>
+          <t>-56,22; 592,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 196,8</t>
+          <t>-33,49; 358,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 97,35</t>
+          <t>-25,33; 416,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,9</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,26</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,43</t>
+          <t>5,73</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 23,45</t>
+          <t>-7,77; 16,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 28,91</t>
+          <t>-3,73; 21,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 11,81</t>
+          <t>-18,25; 12,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 24,74</t>
+          <t>-11,99; 21,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 14,7</t>
+          <t>-10,19; 9,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 22,53</t>
+          <t>-5,52; 15,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>47,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>80,2%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>-16,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>230,44%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>135,87%</t>
+          <t>38,54%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 584,0</t>
+          <t>-62,41; 483,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,82; 637,35</t>
+          <t>-39,53; 527,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-68,95; 109,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 1251,89</t>
+          <t>-41,74; 163,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,16; 328,98</t>
+          <t>-54,79; 97,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,18; 500,23</t>
+          <t>-30,84; 145,57</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 12,93</t>
+          <t>-1,99; 11,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 21,43</t>
+          <t>-3,29; 15,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 17,47</t>
+          <t>-2,63; 13,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 21,61</t>
+          <t>-4,01; 11,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-9,99; 9,46</t>
+          <t>-0,06; 10,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 16,77</t>
+          <t>-0,98; 10,9</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>52,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>40,2%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 96,65</t>
+          <t>-13,87; 132,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,42; 154,89</t>
+          <t>-23,4; 167,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 505,69</t>
+          <t>-14,01; 121,69</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 559,03</t>
+          <t>-24,07; 99,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-54,92; 88,88</t>
+          <t>1,52; 87,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 154,07</t>
+          <t>-6,23; 92,75</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,94</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 12,23</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 12,09</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-1,94; 11,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 14,84</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 9,88</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 10,57</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>33,76%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>21,51%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>40,69%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>59,26%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>36,11%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>37,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-12,22; 107,55</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-22,29; 105,12</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 131,16</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 167,15</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 82,39</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 89,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
